--- a/resultater/ÅDTanalyse.xlsx
+++ b/resultater/ÅDTanalyse.xlsx
@@ -420,16 +420,16 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>1683.517808733145</v>
+        <v>4.646663705457</v>
       </c>
       <c r="C2">
-        <v>2706.888922</v>
+        <v>2709.911041</v>
       </c>
       <c r="D2">
-        <v>700.524932</v>
+        <v>703.645661</v>
       </c>
       <c r="E2">
-        <v>317.140896</v>
+        <v>320.157574</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,16 +437,16 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1187.117871374445</v>
+        <v>3.252366731183</v>
       </c>
       <c r="C3">
-        <v>3201.348287</v>
+        <v>3201.327306</v>
       </c>
       <c r="D3">
-        <v>658.120589</v>
+        <v>658.1181210000001</v>
       </c>
       <c r="E3">
-        <v>143.3474</v>
+        <v>143.347134</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,16 +454,16 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>820.6849714093601</v>
+        <v>2.248459058434</v>
       </c>
       <c r="C4">
-        <v>4660.031993</v>
+        <v>4660.036252</v>
       </c>
       <c r="D4">
-        <v>236.211576</v>
+        <v>236.215563</v>
       </c>
       <c r="E4">
-        <v>27.907165</v>
+        <v>27.907167</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,16 +471,16 @@
         <v>31</v>
       </c>
       <c r="B5">
-        <v>1111.21757055913</v>
+        <v>3.044397195486</v>
       </c>
       <c r="C5">
-        <v>1658.968384</v>
+        <v>1658.945713</v>
       </c>
       <c r="D5">
-        <v>583.339443</v>
+        <v>583.334127</v>
       </c>
       <c r="E5">
-        <v>213.293058</v>
+        <v>213.291994</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,16 +488,16 @@
         <v>32</v>
       </c>
       <c r="B6">
-        <v>2187.36706885365</v>
+        <v>5.991849752963</v>
       </c>
       <c r="C6">
-        <v>2059.287748</v>
+        <v>2059.079909</v>
       </c>
       <c r="D6">
-        <v>1093.76776</v>
+        <v>1093.558156</v>
       </c>
       <c r="E6">
-        <v>503.396337</v>
+        <v>503.188976</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,16 +505,16 @@
         <v>33</v>
       </c>
       <c r="B7">
-        <v>1133.46475285564</v>
+        <v>3.13288994923</v>
       </c>
       <c r="C7">
-        <v>1748.050302</v>
+        <v>1746.79378</v>
       </c>
       <c r="D7">
-        <v>574.081996</v>
+        <v>572.8223819999999</v>
       </c>
       <c r="E7">
-        <v>144.012365</v>
+        <v>143.218212</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,16 +522,16 @@
         <v>34</v>
       </c>
       <c r="B8">
-        <v>2275.25298875227</v>
+        <v>6.233571470646</v>
       </c>
       <c r="C8">
-        <v>6784.45345</v>
+        <v>6784.445011</v>
       </c>
       <c r="D8">
-        <v>1059.681244</v>
+        <v>1059.677453</v>
       </c>
       <c r="E8">
-        <v>224.123305</v>
+        <v>224.12683</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,7 +539,7 @@
         <v>39</v>
       </c>
       <c r="B9">
-        <v>1198.260150382905</v>
+        <v>3.282904521597</v>
       </c>
       <c r="C9">
         <v>1186.220614</v>
@@ -556,16 +556,16 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>760.088851236455</v>
+        <v>2.084546487112</v>
       </c>
       <c r="C10">
-        <v>1912.48762</v>
+        <v>1913.316875</v>
       </c>
       <c r="D10">
-        <v>300.243623</v>
+        <v>300.599318</v>
       </c>
       <c r="E10">
-        <v>100.814822</v>
+        <v>101.062766</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,16 +573,16 @@
         <v>42</v>
       </c>
       <c r="B11">
-        <v>1477.95215228317</v>
+        <v>4.046773468622</v>
       </c>
       <c r="C11">
-        <v>3689.962581</v>
+        <v>3689.837232</v>
       </c>
       <c r="D11">
-        <v>667.010689</v>
+        <v>666.8466139999999</v>
       </c>
       <c r="E11">
-        <v>208.2518</v>
+        <v>208.027951</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,16 +590,16 @@
         <v>46</v>
       </c>
       <c r="B12">
-        <v>2226.19682242834</v>
+        <v>6.008159160536</v>
       </c>
       <c r="C12">
-        <v>5754.59936</v>
+        <v>5747.233974000001</v>
       </c>
       <c r="D12">
-        <v>974.860481</v>
+        <v>967.0339719999999</v>
       </c>
       <c r="E12">
-        <v>350.286524</v>
+        <v>342.449933</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,16 +607,16 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>1894.076447963225</v>
+        <v>5.189249742557999</v>
       </c>
       <c r="C13">
-        <v>6211.375572</v>
+        <v>6211.375444</v>
       </c>
       <c r="D13">
-        <v>913.7937119999999</v>
+        <v>913.799888</v>
       </c>
       <c r="E13">
-        <v>157.780135</v>
+        <v>157.779721</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,10 +624,10 @@
         <v>55</v>
       </c>
       <c r="B14">
-        <v>701.925470744215</v>
+        <v>1.923075198491</v>
       </c>
       <c r="C14">
-        <v>3144.637857</v>
+        <v>3144.596442</v>
       </c>
       <c r="D14">
         <v>201.99704</v>
@@ -641,13 +641,13 @@
         <v>56</v>
       </c>
       <c r="B15">
-        <v>162.091948884715</v>
+        <v>0.444082997191</v>
       </c>
       <c r="C15">
-        <v>1589.77271</v>
+        <v>1589.770689</v>
       </c>
       <c r="D15">
-        <v>31.408792</v>
+        <v>31.407489</v>
       </c>
       <c r="E15">
         <v>10.609722</v>
